--- a/biology/Botanique/Passiflore/Passiflore.xlsx
+++ b/biology/Botanique/Passiflore/Passiflore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Passiflora
 Passiflora, les passiflores, est un genre de plantes à fleurs de la famille des Passifloraceae. Il comprend de plus de 530 espèces. Ce sont des plantes grimpantes aux fleurs spectaculaires, mais leur abondance n'est garantie que dans les régions au climat doux.
 Elles tirent leur nom du fait que les missionnaires jésuites d'Amérique du Sud se servaient, pour représenter la Passion du Christ auprès des indigènes, de la fleur de cette liane : son pistil, les dessins de sa corolle et diverses pièces florales ressemblant à une couronne d'épines, au marteau et aux clous de la Crucifixion.
-Les parties aériennes de la passiflore officinale (Passiflora incarnata) sont connues en phytothérapie pour leur action anxiolytique[2] et sédative.
+Les parties aériennes de la passiflore officinale (Passiflora incarnata) sont connues en phytothérapie pour leur action anxiolytique et sédative.
 La grenadille (Passiflora edulis) donne un fruit comestible à la saveur acidulée, appelé fruit de la passion, et qui entre dans la composition de sorbets, de jus ou de coulis.
 La passiflore bleue (Passiflora caerulea) est la passiflore ornementale la plus cultivée en France métropolitaine.
-La diversité des formes de feuilles chez les passiflores serait due aux papillons. Les lépidoptères Heliconius ont tendance à choisir certaines formes de feuilles pour y pondre. La pression des chenilles dévorant ces feuilles pousse la plante à « inventer » d'autres formes[3].
+La diversité des formes de feuilles chez les passiflores serait due aux papillons. Les lépidoptères Heliconius ont tendance à choisir certaines formes de feuilles pour y pondre. La pression des chenilles dévorant ces feuilles pousse la plante à « inventer » d'autres formes.
 </t>
         </is>
       </c>
@@ -517,7 +529,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du latin passio, passion, et flos, fleur.
 Nicolas Monardes (1493-1588) fut probablement le premier à employer le terme religieux de flos passionis « fleur de la passion » pour désigner la plante, car la fleur était selon lui, « précisément faite pour représenter la Passion du Christ ». Le nom même de Passiflora fut créé par Federico Cesi en 1628.
@@ -559,10 +573,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les passiflores étaient inconnues des Européens avant la découverte de l'Amérique par les Espagnols.
-La première mention littéraire d'une passiflore se trouve dans la description de la ville de Cali en Colombie donnée par Pedro Cieza de Leon en 1553 où il mentionne les fruits de granadilla (petites grenades) dans les vergers aux alentours de la ville[4].
+La première mention littéraire d'une passiflore se trouve dans la description de la ville de Cali en Colombie donnée par Pedro Cieza de Leon en 1553 où il mentionne les fruits de granadilla (petites grenades) dans les vergers aux alentours de la ville.
 Une vingtaine d'années plus tard, on trouve une description plus élaborée des passiflores dans l'ouvrage du médecin botaniste espagnol, Nicolas Monardes, publié en 1569-1574. Monardes né à Séville en 1493 n'est jamais allé en Amérique mais grâce à ses informateurs et aux échantillons de plantes qu'on lui ramenait des Indes occidentales, il put donner dans son ouvrage Historia Medicinal... des descriptions détaillées et relativement objectives de la passiflore, du tabac et de la coca.
 Le terme même de Passiflora fut créé par Federico Cesi (1585-1630), fondateur de l'Accademia dei Lincei, dans une publication datée 1628 (mais sortie en 1651).
 Avant Linné, seuls quelques botanistes (comme Francisco Hernandez, Leonard Pluckenet, Charles Plumier et Tournefort) ont décrit diverses espèces de passiflores.
@@ -598,9 +614,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les passiflores se répartissent pour l'essentiel dans les régions tempérées chaudes et tropicales du nouveau monde. Bien qu'elles soient majoritairement présentes sur le continent américain, on retrouve également des espèces en Asie, Australie et Afrique tropicale[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les passiflores se répartissent pour l'essentiel dans les régions tempérées chaudes et tropicales du nouveau monde. Bien qu'elles soient majoritairement présentes sur le continent américain, on retrouve également des espèces en Asie, Australie et Afrique tropicale.
 </t>
         </is>
       </c>
@@ -629,14 +647,14 @@
           <t>Culture en France métropolitaine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Étant donné le grand nombre d'espèces du genre Passiflora, il est difficile de donner des conseils généraux pour leur culture. En effet, certaines espèces vivent uniquement en forêts tropicales et ne survivent en Europe qu'en serre. D'autres poussent sous un climat subtropical et peuvent proliférer dans des régions au climat doux comme le littoral méditerranéen, le Pays basque ou la Bretagne. Passiflora caerulea fait partie de ces espèces plus résistantes, d'où son abondance en France.
 Sol : Presque tous les sols conviennent à la culture de la passiflore, sauf très secs ou alcalins. Idéalement elles préfèrent un sol léger et riche. Les passiflores aiment les sols humides, mais redoutent que leur substrat soit détrempé.
 Emplacement : Plein soleil à l'ombre légère. Pour les espèces de climat subtropical, il faut choisir par exemple un mur exposé au sud ou au sud-ouest, pour que la chaleur emmagasinée durant la journée se diffuse pendant la nuit. Les espèces de climat purement tropical ne peuvent vivre à l'extérieur en hiver et ont besoin d'une serre ou d'une véranda.
 Les fleurs de passiflore sont très sensibles au gel, aux virus et aux parasites.
-Multiplication
-Par bouture de bois semi-dur en été. Il y a lieu de régénérer les vieux plants en les rabattant au niveau du sol. Tailler les tiges qui débordent de l'espace disponible.
 </t>
         </is>
       </c>
@@ -662,29 +680,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pharmacologie</t>
+          <t>Culture en France métropolitaine</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>La passiflora incarnata possède plusieurs alcaloïdes notamment des inhibiteurs de la  monoamine-oxydase (IMAO) et des sédatifs légers. Pour les maladies liées à la tension nerveuse et au stress, le passiflore en comprimés ou en solution buvable SIPF est un sédatif général. « [...] la passiflore a montré des effets supérieurs à un anxiolytique de la famille des benzodiazépines » [6]. L'association de la passiflore en galénique SIPF avec de la mélisse et de l'aubépine a démontré des effets similaire au Temesta[7]
-L'effet anxiolytique naturel de la passiflore a été démontré par plusieurs études[8],[2],[9].
-Inhibiteur MAO-A
-Harmane
-Quercétine
-Inhibiteur MAO-B
-Harmane
-Inhibiteur MAO
-Apigenine
-Harmaline
-Harmine
-Kaempférol
-Scopoletine
-Sédatif
-Apigénine
-Maltol
-Niacine
-Stigmastérol</t>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par bouture de bois semi-dur en été. Il y a lieu de régénérer les vieux plants en les rabattant au niveau du sol. Tailler les tiges qui débordent de l'espace disponible.
+</t>
         </is>
       </c>
     </row>
@@ -709,12 +717,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une expérience menée par Francis Hallé montre la capacité de la passiflore à percevoir, d'une part la présence d'un bâton vers lequel lancer une vrille, puis le déplacement de ce dernier (par l'homme) plusieurs fois de suite dans le même sens, et montre une capacité à anticiper un nouveau déplacement similaire du bâton en lançant sa vrille du même côté, avant même son déplacement[10],[11].
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La passiflora incarnata possède plusieurs alcaloïdes notamment des inhibiteurs de la  monoamine-oxydase (IMAO) et des sédatifs légers. Pour les maladies liées à la tension nerveuse et au stress, le passiflore en comprimés ou en solution buvable SIPF est un sédatif général. « [...] la passiflore a montré des effets supérieurs à un anxiolytique de la famille des benzodiazépines » . L'association de la passiflore en galénique SIPF avec de la mélisse et de l'aubépine a démontré des effets similaire au Temesta
+L'effet anxiolytique naturel de la passiflore a été démontré par plusieurs études.
 </t>
         </is>
       </c>
@@ -740,12 +751,199 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Inhibiteur MAO-A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Harmane
+Quercétine</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Passiflore</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Passiflore</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Inhibiteur MAO-B</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Harmane</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Passiflore</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Passiflore</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Inhibiteur MAO</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Apigenine
+Harmaline
+Harmine
+Kaempférol
+Scopoletine</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Passiflore</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Passiflore</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sédatif</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Apigénine
+Maltol
+Niacine
+Stigmastérol</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Passiflore</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Passiflore</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une expérience menée par Francis Hallé montre la capacité de la passiflore à percevoir, d'une part la présence d'un bâton vers lequel lancer une vrille, puis le déplacement de ce dernier (par l'homme) plusieurs fois de suite dans le même sens, et montre une capacité à anticiper un nouveau déplacement similaire du bâton en lançant sa vrille du même côté, avant même son déplacement,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Passiflore</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Passiflore</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (1er janvier 2014)[12] :
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (1er janvier 2014) :
 Passiflora affinis Engelm.
 Passiflora alata Curtis
 Passiflora anadenia Urb.
@@ -794,7 +992,7 @@
 Passiflora tulae Urb.
 Passiflora X violacea Loisel.
 Passiflora vitifolia Kunth
-Selon NCBI  (1 janvier 2014)[13] :
+Selon NCBI  (1 janvier 2014) :
 Passiflora actinia
 Passiflora actinia x Passiflora elegans
 Passiflora acuminata
@@ -1054,7 +1252,7 @@
 Passiflora wilsonii
 Passiflora xiikzodz
 Passiflora xishuangbannaensis
-Selon The Plant List            (1 janvier 2014)[14] :
+Selon The Plant List            (1 janvier 2014) :
 Passiflora actinia Hook.
 Passiflora acuminata DC.
 Passiflora adenopoda DC.
@@ -1416,7 +1614,7 @@
 Passiflora xishuangbannaensis Krosnick
 Passiflora yucatanensis Killip
 Passiflora zamorana Killip
-Selon Tropicos                                           (1 janvier 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 janvier 2014) (Attention liste brute contenant possiblement des synonymes) :
 Passiflora acerifolia Cham. &amp; Schltdl.
 Passiflora actinia Hook.
 Passiflora aculeata Mill. ex C.F.E. Otto
@@ -1870,7 +2068,7 @@
 Passiflora loretensis Killip
 Passiflora lorifera Mast. &amp; André
 Passiflora loudonii Atk. ex W.H. Baxter &amp; G. Don
-Pa</t>
+Passiflora lourei</t>
         </is>
       </c>
     </row>
